--- a/relatorios/repasses_liberados/dentistas/06154988338/2023-08-25_relatorio_repasses_06154988338.xlsx
+++ b/relatorios/repasses_liberados/dentistas/06154988338/2023-08-25_relatorio_repasses_06154988338.xlsx
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N42">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/06154988338/2023-08-25_relatorio_repasses_06154988338.xlsx
+++ b/relatorios/repasses_liberados/dentistas/06154988338/2023-08-25_relatorio_repasses_06154988338.xlsx
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N43">
         <v>0</v>
